--- a/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
+++ b/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C597"/>
+  <dimension ref="A1:C598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10515,6 +10515,23 @@
         </is>
       </c>
     </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>14-12-2021</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>430000</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
+++ b/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C598"/>
+  <dimension ref="A1:C599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8721,7 +8721,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -9792,7 +9792,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -10527,6 +10527,23 @@
         </is>
       </c>
       <c r="C598" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>5677000</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
+++ b/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C599"/>
+  <dimension ref="A1:C600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8721,7 +8721,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -9792,7 +9792,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -10544,6 +10544,23 @@
         </is>
       </c>
       <c r="C599" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>5392000</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
+++ b/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8721,7 +8721,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -9792,7 +9792,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">

--- a/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
+++ b/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C600"/>
+  <dimension ref="A1:C601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10566,6 +10566,23 @@
         </is>
       </c>
     </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>5045000</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
+++ b/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8721,7 +8721,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -9792,7 +9792,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">

--- a/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
+++ b/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C601"/>
+  <dimension ref="A1:C604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10583,6 +10583,57 @@
         </is>
       </c>
     </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>18-12-2021</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>19-12-2021</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>795000</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
+++ b/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8721,7 +8721,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -9792,7 +9792,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -10608,7 +10608,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">

--- a/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
+++ b/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C604"/>
+  <dimension ref="A1:C605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10634,6 +10634,23 @@
         </is>
       </c>
     </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>21-12-2021</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>903000</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
+++ b/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8721,7 +8721,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -9792,7 +9792,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -10608,7 +10608,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">

--- a/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
+++ b/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C605"/>
+  <dimension ref="A1:C606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10651,6 +10651,23 @@
         </is>
       </c>
     </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>327000</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
+++ b/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C606"/>
+  <dimension ref="A1:C607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8721,7 +8721,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -9792,7 +9792,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -10608,7 +10608,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -10663,6 +10663,23 @@
         </is>
       </c>
       <c r="C606" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>23-12-2021</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>812000</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
+++ b/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C607"/>
+  <dimension ref="A1:C608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10685,6 +10685,23 @@
         </is>
       </c>
     </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>24-12-2021</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>375000</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
+++ b/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C608"/>
+  <dimension ref="A1:C611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8721,7 +8721,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -9792,7 +9792,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -10608,7 +10608,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -10697,6 +10697,57 @@
         </is>
       </c>
       <c r="C608" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>25-12-2021</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>26-12-2021</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>27-12-2021</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>932000</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
+++ b/Data/F022.PDBC4.FLU.D014.Z.CLP.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8721,7 +8721,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -9792,7 +9792,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -10608,7 +10608,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
